--- a/legendre_out/DATA/a1/a1IntegrandSplinePoints2.000000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandSplinePoints2.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>2.87336827508409e-12</v>
+        <v>2.885839513517216e-12</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>2.864535255732842e-12</v>
+        <v>2.877941488875557e-12</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>2.852034907276492e-12</v>
+        <v>2.865631062191449e-12</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>2.836169920280985e-12</v>
+        <v>2.84929487121272e-12</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>2.817242985312211e-12</v>
+        <v>2.82931955368715e-12</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>2.79555679293608e-12</v>
+        <v>2.806091747362534e-12</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>2.771414033718465e-12</v>
+        <v>2.779998089986633e-12</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>2.745117398225341e-12</v>
+        <v>2.751425219307309e-12</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>2.716969577022581e-12</v>
+        <v>2.720759773072325e-12</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>2.687273260676057e-12</v>
+        <v>2.688388389029433e-12</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>2.656331139751753e-12</v>
+        <v>2.654697704926513e-12</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>2.624445904815539e-12</v>
+        <v>2.620074358511318e-12</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>2.591920246433281e-12</v>
+        <v>2.584904987531598e-12</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>2.559056855170971e-12</v>
+        <v>2.54957622973524e-12</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>2.526158421594476e-12</v>
+        <v>2.514474722869991e-12</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>2.493527636269703e-12</v>
+        <v>2.479987104683649e-12</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>2.461467189762518e-12</v>
+        <v>2.446500012923964e-12</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>2.430279772638914e-12</v>
+        <v>2.41440008533882e-12</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>2.400261116405109e-12</v>
+        <v>2.384062765086918e-12</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>2.371567007691577e-12</v>
+        <v>2.355638375058845e-12</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>2.344223626609249e-12</v>
+        <v>2.32906874852181e-12</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>2.318252265698933e-12</v>
+        <v>2.304287856425227e-12</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>2.293674217501476e-12</v>
+        <v>2.281229669718544e-12</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>2.270510774557693e-12</v>
+        <v>2.259828159351186e-12</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>2.24878322940849e-12</v>
+        <v>2.240017296272658e-12</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>2.228512874594683e-12</v>
+        <v>2.221731051432382e-12</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>2.209721002657091e-12</v>
+        <v>2.204903395779787e-12</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>2.192428906136612e-12</v>
+        <v>2.189468300264366e-12</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>2.176657877574066e-12</v>
+        <v>2.175359735835548e-12</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>2.162429209510297e-12</v>
+        <v>2.162511673442783e-12</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>2.149764194486136e-12</v>
+        <v>2.150858084035505e-12</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>2.138684125042461e-12</v>
+        <v>2.140332938563196e-12</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>2.1292102937201e-12</v>
+        <v>2.13087020797529e-12</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>2.121363993059892e-12</v>
+        <v>2.122403863221227e-12</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>2.115128095152772e-12</v>
+        <v>2.114849555973333e-12</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>2.110228334029219e-12</v>
+        <v>2.108000331755274e-12</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>2.10628490873197e-12</v>
+        <v>2.101598915891644e-12</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>2.1029176965348e-12</v>
+        <v>2.095387880284201e-12</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>2.099746574711469e-12</v>
+        <v>2.089109796834682e-12</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>2.096391420535741e-12</v>
+        <v>2.082507237444832e-12</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>2.092472111281375e-12</v>
+        <v>2.075322774016383e-12</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>2.087608524222147e-12</v>
+        <v>2.067298978451101e-12</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>2.081420536631816e-12</v>
+        <v>2.058178422650719e-12</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>2.073528025784137e-12</v>
+        <v>2.047703678516968e-12</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>2.063550868952895e-12</v>
+        <v>2.035617317951619e-12</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>2.051108943411845e-12</v>
+        <v>2.021661912856405e-12</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>2.035822126434753e-12</v>
+        <v>2.005580035133068e-12</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>2.017310295295356e-12</v>
+        <v>1.987114256683328e-12</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.995193327267469e-12</v>
+        <v>1.966007149408978e-12</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>1.969124916325284e-12</v>
+        <v>1.942022006026424e-12</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>1.939193503340125e-12</v>
+        <v>1.915188505675668e-12</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>1.905789132779287e-12</v>
+        <v>1.885721131813473e-12</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>1.86930791603378e-12</v>
+        <v>1.85383808533796e-12</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>1.830145964494599e-12</v>
+        <v>1.819757567147239e-12</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>1.788699389552891e-12</v>
+        <v>1.783697778139555e-12</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>1.745364302599656e-12</v>
+        <v>1.745876919213021e-12</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>1.700536815025938e-12</v>
+        <v>1.706513191265792e-12</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>1.654613038222725e-12</v>
+        <v>1.66582479519597e-12</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>1.607989083581183e-12</v>
+        <v>1.624029931901817e-12</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>1.5610610624923e-12</v>
+        <v>1.581346802281436e-12</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>1.514225086347061e-12</v>
+        <v>1.537993607232926e-12</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>1.467869953311316e-12</v>
+        <v>1.494186112346936e-12</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>1.422204603611068e-12</v>
+        <v>1.450080190431776e-12</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>1.377251396629373e-12</v>
+        <v>1.405769582783533e-12</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>1.333024033375582e-12</v>
+        <v>1.361345147455559e-12</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>1.289536214859217e-12</v>
+        <v>1.316897742501383e-12</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>1.246801642089628e-12</v>
+        <v>1.272518225974359e-12</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>1.204834016076168e-12</v>
+        <v>1.228297455927841e-12</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>1.163647037828354e-12</v>
+        <v>1.184326290415355e-12</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>1.123254408355541e-12</v>
+        <v>1.140695587490258e-12</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>1.083669828667082e-12</v>
+        <v>1.097496205205903e-12</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>1.04490699977249e-12</v>
+        <v>1.054819001615816e-12</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>1.006979622681119e-12</v>
+        <v>1.012754834773352e-12</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>9.699013984023787e-13</v>
+        <v>9.713945627319219e-13</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>9.336860279456279e-13</v>
+        <v>9.308290435448855e-13</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>8.983472123203706e-13</v>
+        <v>8.911491352657618e-13</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>8.638986525359655e-13</v>
+        <v>8.524456959479079e-13</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>8.303540496017775e-13</v>
+        <v>8.148095836446876e-13</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>7.977271045273018e-13</v>
+        <v>7.783316564096111e-13</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>7.660315183219015e-13</v>
+        <v>7.431027722960404e-13</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>7.352809919949844e-13</v>
+        <v>7.092137893573871e-13</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>7.0548922655592e-13</v>
+        <v>6.767555656470218e-13</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>6.766699230141935e-13</v>
+        <v>6.45818959218441e-13</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>6.488367823791732e-13</v>
+        <v>6.164948281250134e-13</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>6.220035056602323e-13</v>
+        <v>5.888740304201157e-13</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>5.961837938668487e-13</v>
+        <v>5.630474241572322e-13</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>5.713913480083943e-13</v>
+        <v>5.391058673897375e-13</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>5.476659478652543e-13</v>
+        <v>5.171315130047748e-13</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>5.251829343920507e-13</v>
+        <v>4.971612631925453e-13</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>5.041615580862916e-13</v>
+        <v>4.792173630158443e-13</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>4.848210919732187e-13</v>
+        <v>4.63322050017537e-13</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>4.673808090780824e-13</v>
+        <v>4.494975617404996e-13</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>4.520599824262004e-13</v>
+        <v>4.377661357276611e-13</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>4.390778850428205e-13</v>
+        <v>4.28150009521895e-13</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>4.286537899532026e-13</v>
+        <v>4.206714206660856e-13</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>4.210069701826463e-13</v>
+        <v>4.153526067031454e-13</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>4.163566987564081e-13</v>
+        <v>4.122158051759562e-13</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>4.149222486997597e-13</v>
+        <v>4.112832536274105e-13</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>4.169228930379781e-13</v>
+        <v>4.125771896004046e-13</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>4.225779047963301e-13</v>
+        <v>4.161198506378278e-13</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>9.226990852166467e-13</v>
+        <v>9.138803543613485e-13</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>1.233822250263367e-12</v>
+        <v>1.231413539098147e-12</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>1.182386443392953e-12</v>
+        <v>1.169080334981738e-12</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>1.167131118998364e-12</v>
+        <v>1.16195025161947e-12</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>1.16250415528461e-12</v>
+        <v>1.169034760947892e-12</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>1.152937368357793e-12</v>
+        <v>1.160527285351099e-12</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>1.244652880867237e-12</v>
+        <v>1.243025658603672e-12</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>1.625233064990458e-12</v>
+        <v>1.614253443226401e-12</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>2.22097621356306e-12</v>
+        <v>2.212091394130869e-12</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>2.458218437816841e-12</v>
+        <v>2.467027238645274e-12</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>2.561160143221906e-12</v>
+        <v>2.580235447108924e-12</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>2.654573008169253e-12</v>
+        <v>2.66204319821741e-12</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>2.593391507358276e-12</v>
+        <v>2.571654805687142e-12</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>2.423242777235068e-12</v>
+        <v>2.398250207616258e-12</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>2.292150360588164e-12</v>
+        <v>2.333241771271796e-12</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>2.231241064064724e-12</v>
+        <v>2.317316026747992e-12</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>2.22865552311336e-12</v>
+        <v>2.269823978266479e-12</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>2.270325068396391e-12</v>
+        <v>2.293966043888718e-12</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>2.218811478816091e-12</v>
+        <v>2.225475235001086e-12</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>2.116835943539829e-12</v>
+        <v>2.101215158177394e-12</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>2.045395572206481e-12</v>
+        <v>2.042499971699453e-12</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>1.960724484173779e-12</v>
+        <v>1.963405223386098e-12</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>1.876202884451375e-12</v>
+        <v>1.880712638778761e-12</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>1.808192159540799e-12</v>
+        <v>1.819104580894834e-12</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>1.751391842213899e-12</v>
+        <v>1.769188151039133e-12</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>1.698154779301656e-12</v>
+        <v>1.71787898723783e-12</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>1.64099946827784e-12</v>
+        <v>1.65307153707076e-12</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>1.574134580693877e-12</v>
+        <v>1.572647281714927e-12</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>1.492756900272739e-12</v>
+        <v>1.480326337304848e-12</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>1.392257346229956e-12</v>
+        <v>1.379890965962613e-12</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>1.275090040152831e-12</v>
+        <v>1.274684888203011e-12</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>1.152884033180355e-12</v>
+        <v>1.167482169568285e-12</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>1.037881510174718e-12</v>
+        <v>1.061018807224154e-12</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>9.409618482892278e-13</v>
+        <v>9.587066789347558e-13</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>8.640168688845918e-13</v>
+        <v>8.684150151413138e-13</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>8.052923774926781e-13</v>
+        <v>7.997782550340991e-13</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>7.620876485042825e-13</v>
+        <v>7.563494584018879e-13</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>7.297698430920197e-13</v>
+        <v>7.291207120630101e-13</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>7.035771653959118e-13</v>
+        <v>7.078009436815274e-13</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>6.809193852245185e-13</v>
+        <v>6.874191285647732e-13</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>6.61197862900493e-13</v>
+        <v>6.678833744242358e-13</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>6.4388766872988e-13</v>
+        <v>6.492823686467443e-13</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>6.284638730187469e-13</v>
+        <v>6.317047986191523e-13</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>6.144015460731376e-13</v>
+        <v>6.152393517282887e-13</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>6.011954671785639e-13</v>
+        <v>5.999670146496948e-13</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>5.886111710022302e-13</v>
+        <v>5.858629842573361e-13</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>5.766109208229988e-13</v>
+        <v>5.728255914339907e-13</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>5.651614084756341e-13</v>
+        <v>5.607514367328149e-13</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>5.542293257949023e-13</v>
+        <v>5.495371207069665e-13</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>5.43781364615583e-13</v>
+        <v>5.390792439096187e-13</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>5.337842167724426e-13</v>
+        <v>5.292744068939292e-13</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>5.24204574100251e-13</v>
+        <v>5.200192102130607e-13</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>5.150091284337746e-13</v>
+        <v>5.112102544201722e-13</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>5.061682219930152e-13</v>
+        <v>5.027571295866111e-13</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>4.976702810080625e-13</v>
+        <v>4.946337758628363e-13</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>4.895093214938212e-13</v>
+        <v>4.868340240702988e-13</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>4.816793611016518e-13</v>
+        <v>4.793517108535773e-13</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>4.741744174829034e-13</v>
+        <v>4.721806728572403e-13</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>4.66988508288929e-13</v>
+        <v>4.653147467258595e-13</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>4.601156511710785e-13</v>
+        <v>4.58747769104004e-13</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>4.535498637807109e-13</v>
+        <v>4.524735766362514e-13</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>4.47285163769176e-13</v>
+        <v>4.464860059671706e-13</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>4.413155687878241e-13</v>
+        <v>4.40778893741331e-13</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>4.356350964880135e-13</v>
+        <v>4.353460766033096e-13</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>4.302377645210944e-13</v>
+        <v>4.301813911976757e-13</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>4.251175905384198e-13</v>
+        <v>4.252786741690011e-13</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>4.202685921913403e-13</v>
+        <v>4.206317621618556e-13</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>4.156847871312133e-13</v>
+        <v>4.162344918208151e-13</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>4.113601930093897e-13</v>
+        <v>4.120806997904497e-13</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>4.072888274772202e-13</v>
+        <v>4.081642227153293e-13</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>4.034647081860618e-13</v>
+        <v>4.044788972400294e-13</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>3.998818527872652e-13</v>
+        <v>4.010185600091198e-13</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>3.965342789321835e-13</v>
+        <v>3.977770476671726e-13</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>3.934160042721682e-13</v>
+        <v>3.947481968587583e-13</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>3.905210464585751e-13</v>
+        <v>3.919258442284514e-13</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>3.878434231427559e-13</v>
+        <v>3.893038264208227e-13</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>3.853771519760619e-13</v>
+        <v>3.868759800804426e-13</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>3.831162506098486e-13</v>
+        <v>3.846361418518852e-13</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>3.810547366954678e-13</v>
+        <v>3.825781483797213e-13</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>3.791866278842723e-13</v>
+        <v>3.806958363085229e-13</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>3.775059418276143e-13</v>
+        <v>3.78983042282861e-13</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>3.760066961768483e-13</v>
+        <v>3.774336029473089e-13</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>3.746829085833264e-13</v>
+        <v>3.760413549464379e-13</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>3.735285966984016e-13</v>
+        <v>3.748001349248197e-13</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>3.725377781734263e-13</v>
+        <v>3.737037795270258e-13</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>3.717044706597543e-13</v>
+        <v>3.727461253976289e-13</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>3.710226918087383e-13</v>
+        <v>3.719210091812006e-13</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>3.7048645875184e-13</v>
+        <v>3.712222671848911e-13</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>3.70087931032321e-13</v>
+        <v>3.706425300982245e-13</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>3.698132383969342e-13</v>
+        <v>3.701705151335841e-13</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>3.69647289262124e-13</v>
+        <v>3.697941468317866e-13</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>3.695749920443347e-13</v>
+        <v>3.695013497336498e-13</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>3.695812551600105e-13</v>
+        <v>3.692800483799903e-13</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>3.696509870255958e-13</v>
+        <v>3.691181673116256e-13</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>3.69769096057535e-13</v>
+        <v>3.690036310693724e-13</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>3.699204906722722e-13</v>
+        <v>3.68924364194048e-13</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>3.700900792862519e-13</v>
+        <v>3.688682912264696e-13</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>3.702627703159182e-13</v>
+        <v>3.688233367074542e-13</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>3.704234721777157e-13</v>
+        <v>3.687774251778189e-13</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>3.705570932880884e-13</v>
+        <v>3.687184811783808e-13</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>3.706485420634807e-13</v>
+        <v>3.68634429249957e-13</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>3.706827269203371e-13</v>
+        <v>3.685131939333647e-13</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>3.706445562751018e-13</v>
+        <v>3.683426997694208e-13</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>3.70518938544219e-13</v>
+        <v>3.681108712989427e-13</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>3.702907821441329e-13</v>
+        <v>3.678056330627473e-13</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>3.699449954912881e-13</v>
+        <v>3.674149096016517e-13</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>3.694664870021289e-13</v>
+        <v>3.669266254564731e-13</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>3.688401650930996e-13</v>
+        <v>3.663287051680288e-13</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>3.68050938180644e-13</v>
+        <v>3.656090732771352e-13</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>3.670837146812071e-13</v>
+        <v>3.647556543246102e-13</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>3.65923403011233e-13</v>
+        <v>3.637563728512706e-13</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>3.64554911587166e-13</v>
+        <v>3.625991533979335e-13</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>3.629631488254497e-13</v>
+        <v>3.612719205054155e-13</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>3.611330231425296e-13</v>
+        <v>3.597625987145347e-13</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>3.590520714107795e-13</v>
+        <v>3.58060159340677e-13</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>3.567218739982841e-13</v>
+        <v>3.561591664786257e-13</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>3.541486822278847e-13</v>
+        <v>3.540560444166719e-13</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>3.513387505680383e-13</v>
+        <v>3.517472186958374e-13</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>3.482983334872025e-13</v>
+        <v>3.492291148571446e-13</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>3.450336854538334e-13</v>
+        <v>3.464981584416146e-13</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>3.415510609363918e-13</v>
+        <v>3.435507749902724e-13</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>3.378567144033336e-13</v>
+        <v>3.403833900441391e-13</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>3.33956900323115e-13</v>
+        <v>3.369924291442357e-13</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>3.298578731641968e-13</v>
+        <v>3.333743178315875e-13</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>3.255658873950354e-13</v>
+        <v>3.295254816472157e-13</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>3.210871974840883e-13</v>
+        <v>3.254423461321426e-13</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>3.16428057899811e-13</v>
+        <v>3.211213368273886e-13</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>3.115947231106652e-13</v>
+        <v>3.1655887927398e-13</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>3.065934475851069e-13</v>
+        <v>3.117513990129375e-13</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>3.014304857915912e-13</v>
+        <v>3.066953215852811e-13</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>2.961120921985803e-13</v>
+        <v>3.013870725320377e-13</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>2.906436056754532e-13</v>
+        <v>2.958237700649877e-13</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>2.850206390498244e-13</v>
+        <v>2.90009890359585e-13</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>2.792329402707681e-13</v>
+        <v>2.839543465003806e-13</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>2.732701764117012e-13</v>
+        <v>2.776661127561463e-13</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>2.671220145460324e-13</v>
+        <v>2.711541633956457e-13</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>2.607781217471734e-13</v>
+        <v>2.644274726876451e-13</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>2.542281650885329e-13</v>
+        <v>2.574950149009077e-13</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>2.474618116435281e-13</v>
+        <v>2.503657643042059e-13</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>2.404687284855678e-13</v>
+        <v>2.430486951663031e-13</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>2.332385826880602e-13</v>
+        <v>2.35552781755962e-13</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>2.257610413244234e-13</v>
+        <v>2.278869983419558e-13</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>2.180257714680659e-13</v>
+        <v>2.200603191930475e-13</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>2.100224401923954e-13</v>
+        <v>2.120817185779996e-13</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>2.017495010272853e-13</v>
+        <v>2.03967172135909e-13</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>1.933130384333538e-13</v>
+        <v>1.95818419773669e-13</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>1.848912743628118e-13</v>
+        <v>1.877946831936438e-13</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>1.766637603083923e-13</v>
+        <v>1.800562435247818e-13</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>1.688100477628389e-13</v>
+        <v>1.727633818960416e-13</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>1.615096882188844e-13</v>
+        <v>1.660763794363713e-13</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>1.549422331692651e-13</v>
+        <v>1.601555172747227e-13</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>1.49287234106715e-13</v>
+        <v>1.551610765400452e-13</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>1.447242425239758e-13</v>
+        <v>1.512533383612952e-13</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>1.414328099137811e-13</v>
+        <v>1.485925838674218e-13</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>1.395924877688666e-13</v>
+        <v>1.473390941873765e-13</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>1.393828275819705e-13</v>
+        <v>1.47653150450112e-13</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>1.409833808458281e-13</v>
+        <v>1.496950337845793e-13</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>1.445574864450178e-13</v>
+        <v>1.536092192614478e-13</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>1.500378336238949e-13</v>
+        <v>1.593153161173024e-13</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>1.571854717788665e-13</v>
+        <v>1.665655978082179e-13</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>1.657573636601656e-13</v>
+        <v>1.751083536214683e-13</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>1.755104720180277e-13</v>
+        <v>1.846918728443301e-13</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>1.862017596026749e-13</v>
+        <v>1.950644447640666e-13</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>1.975881891643423e-13</v>
+        <v>2.059743586679537e-13</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>2.094267234532609e-13</v>
+        <v>2.171699038432636e-13</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>2.214743252196669e-13</v>
+        <v>2.28399369577273e-13</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>2.334879572137805e-13</v>
+        <v>2.394110451572438e-13</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>2.45224582185838e-13</v>
+        <v>2.49953219870453e-13</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>2.564411628860751e-13</v>
+        <v>2.597741830041766e-13</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>2.668946620647125e-13</v>
+        <v>2.686222238456779e-13</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>2.763420424719866e-13</v>
+        <v>2.762456316822333e-13</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>2.845577251890024e-13</v>
+        <v>2.824457712674625e-13</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>2.915604313840598e-13</v>
+        <v>2.877667095726301e-13</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>2.975486463874489e-13</v>
+        <v>2.932990186615778e-13</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>3.027269457865279e-13</v>
+        <v>3.001457460802986e-13</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>3.083309255405938e-13</v>
+        <v>3.093028943297351e-13</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>3.182758030753646e-13</v>
+        <v>3.214649032895453e-13</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>3.335580099806107e-13</v>
+        <v>3.360162145096502e-13</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>3.496869328918002e-13</v>
+        <v>3.502806462167513e-13</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>3.622396689110949e-13</v>
+        <v>3.616817404997875e-13</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>3.700843439603825e-13</v>
+        <v>3.693057368144536e-13</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>3.732619524319167e-13</v>
+        <v>3.728314325744815e-13</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>3.718149270217141e-13</v>
+        <v>3.719383518550827e-13</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>3.658377961560125e-13</v>
+        <v>3.663694576244945e-13</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>3.56452350129763e-13</v>
+        <v>3.571186475345448e-13</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>3.45720792620109e-13</v>
+        <v>3.463249953138982e-13</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>3.357400108402086e-13</v>
+        <v>3.361698101128503e-13</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>3.28606892003234e-13</v>
+        <v>3.28834401081711e-13</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>3.264183233223422e-13</v>
+        <v>3.265000773707752e-13</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>3.312711920106956e-13</v>
+        <v>3.313481481303429e-13</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>3.452623852814648e-13</v>
+        <v>3.455599225107227e-13</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>3.704887903478004e-13</v>
+        <v>3.713167096622025e-13</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>4.077108623634847e-13</v>
+        <v>4.093899873211522e-13</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>4.421710090043598e-13</v>
+        <v>4.441809054817218e-13</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>4.540939066413935e-13</v>
+        <v>4.547712412572284e-13</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>4.482745433304225e-13</v>
+        <v>4.460332337445588e-13</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>4.370107782089894e-13</v>
+        <v>4.307322934598039e-13</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>4.268304110717799e-13</v>
+        <v>4.162264424295073e-13</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>4.169075295002912e-13</v>
+        <v>4.029818720005061e-13</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>4.059390570013798e-13</v>
+        <v>3.91017579787613e-13</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>3.926220923756301e-13</v>
+        <v>3.803525946774983e-13</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>3.765792169522492e-13</v>
+        <v>3.711710487856804e-13</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>3.605188233459695e-13</v>
+        <v>3.642075734440902e-13</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>3.477916635706753e-13</v>
+        <v>3.603113949203789e-13</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>3.417484896402507e-13</v>
+        <v>3.603317394821991e-13</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>3.453504574239073e-13</v>
+        <v>3.649364973897781e-13</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>3.563194075049959e-13</v>
+        <v>3.723549400192772e-13</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>3.686259751826194e-13</v>
+        <v>3.790703548644072e-13</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>3.761592758166024e-13</v>
+        <v>3.815280862807939e-13</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>3.741209030989986e-13</v>
+        <v>3.769476613674151e-13</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>3.63347350033163e-13</v>
+        <v>3.658724272819916e-13</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>3.461870355116324e-13</v>
+        <v>3.497375607110805e-13</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>3.249883969155857e-13</v>
+        <v>3.299782492470037e-13</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>3.020998705048648e-13</v>
+        <v>3.080296815622979e-13</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>2.797480782685344e-13</v>
+        <v>2.854443927489138e-13</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>2.597026768398608e-13</v>
+        <v>2.64215122876206e-13</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>2.436261891573663e-13</v>
+        <v>2.46437816304711e-13</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>2.331811381595829e-13</v>
+        <v>2.342084173949751e-13</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>2.299078122560892e-13</v>
+        <v>2.294827177683333e-13</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>2.334274774638592e-13</v>
+        <v>2.320161795055886e-13</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>2.418366880277963e-13</v>
+        <v>2.398160472796517e-13</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>2.531899359819231e-13</v>
+        <v>2.508413377044477e-13</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>2.655417133602452e-13</v>
+        <v>2.630510673938863e-13</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>2.769465121967842e-13</v>
+        <v>2.744042529618922e-13</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>2.85458824525557e-13</v>
+        <v>2.828599110223854e-13</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>2.891331423805808e-13</v>
+        <v>2.863770581892863e-13</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>2.860322499391483e-13</v>
+        <v>2.829234709818612e-13</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>2.75299024106123e-13</v>
+        <v>2.716079469730703e-13</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>2.58216640891247e-13</v>
+        <v>2.53800317698543e-13</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>2.363202343350971e-13</v>
+        <v>2.311365857461634e-13</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>2.111449384782277e-13</v>
+        <v>2.052527537037917e-13</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>1.842258873611997e-13</v>
+        <v>1.777848241592953e-13</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>1.570982150245621e-13</v>
+        <v>1.503687997005292e-13</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>1.312970555089005e-13</v>
+        <v>1.246406829153859e-13</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>1.083575428547638e-13</v>
+        <v>1.022364763917201e-13</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>8.981159435489908e-14</v>
+        <v>8.478858826989783e-14</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>7.652595380568817e-14</v>
+        <v>7.318615076335325e-14</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>6.78914307207249e-14</v>
+        <v>6.666906257258893e-14</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>6.310038892295658e-14</v>
+        <v>6.425547588315009e-14</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>6.134519223533021e-14</v>
+        <v>6.496354288058275e-14</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>6.181820448079439e-14</v>
+        <v>6.781141575043109e-14</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>6.371178948229494e-14</v>
+        <v>7.181724667823994e-14</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>6.621831106278029e-14</v>
+        <v>7.599918784955632e-14</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>6.85301330451952e-14</v>
+        <v>7.937539144992127e-14</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>6.988604684729704e-14</v>
+        <v>8.102229775795284e-14</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>7.023096524728575e-14</v>
+        <v>8.090285577075969e-14</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>7.005927887776242e-14</v>
+        <v>7.966986319394863e-14</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>6.987985813800279e-14</v>
+        <v>7.799429653371086e-14</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>7.020157342728229e-14</v>
+        <v>7.654713229623577e-14</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>7.153329514487725e-14</v>
+        <v>7.599934698771329e-14</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>7.438389369006205e-14</v>
+        <v>7.702191711433391e-14</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>7.926223946211249e-14</v>
+        <v>8.028581918228698e-14</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>8.667720286030391e-14</v>
+        <v>8.646202969776226e-14</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>9.695050572946804e-14</v>
+        <v>9.599370201040175e-14</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>1.096320572169325e-13</v>
+        <v>1.083844320923943e-13</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>1.240728297669801e-13</v>
+        <v>1.228956425912343e-13</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>1.396237956202371e-13</v>
+        <v>1.387887559064987e-13</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>1.55635927017337e-13</v>
+        <v>1.553251944377718e-13</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>1.714601961988913e-13</v>
+        <v>1.717663805846153e-13</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>1.864475754055335e-13</v>
+        <v>1.873737367466133e-13</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>1.999490368778954e-13</v>
+        <v>2.014086853233486e-13</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>2.113214710300417e-13</v>
+        <v>2.131387721114902e-13</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>2.210317353078826e-13</v>
+        <v>2.229800001075554e-13</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>2.319556278359288e-13</v>
+        <v>2.338408474780181e-13</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>2.472846749029782e-13</v>
+        <v>2.489564690140341e-13</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>2.702104027978416e-13</v>
+        <v>2.71562019506772e-13</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>3.039243378093254e-13</v>
+        <v>3.048926537473958e-13</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>3.516180062262611e-13</v>
+        <v>3.521835265270947e-13</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>4.164829343374136e-13</v>
+        <v>4.166697926369915e-13</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>5.017106484316074e-13</v>
+        <v>5.015866068682682e-13</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>6.104224773125997e-13</v>
+        <v>6.100985872563507e-13</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>7.418073872076152e-13</v>
+        <v>7.414189838020094e-13</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>8.891146757625985e-13</v>
+        <v>8.887926709781415e-13</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>1.045100452570219e-12</v>
+        <v>1.044968951582636e-12</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>1.202520827223163e-12</v>
+        <v>1.202697128413398e-12</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>1.3541319093139e-12</v>
+        <v>1.354726504268118e-12</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>1.492689808435116e-12</v>
+        <v>1.493806381944703e-12</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>1.610950634179474e-12</v>
+        <v>1.612686064241034e-12</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>1.701670496139481e-12</v>
+        <v>1.704114853954837e-12</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>1.759061235501768e-12</v>
+        <v>1.762294952979768e-12</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>1.784953408672416e-12</v>
+        <v>1.789032454269577e-12</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>1.783661622528886e-12</v>
+        <v>1.788612667893779e-12</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>1.759501851004417e-12</v>
+        <v>1.765322268317706e-12</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>1.716790068032252e-12</v>
+        <v>1.723447930006694e-12</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>1.659842247545625e-12</v>
+        <v>1.667276327426075e-12</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>1.592974363477742e-12</v>
+        <v>1.601094135041145e-12</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>1.520502389761901e-12</v>
+        <v>1.529188027317298e-12</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>1.446742239508951e-12</v>
+        <v>1.455844618524511e-12</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>1.375194600810024e-12</v>
+        <v>1.384543702249639e-12</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>1.306501229348248e-12</v>
+        <v>1.315935613043549e-12</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>1.240677517244821e-12</v>
+        <v>1.25005077921687e-12</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>1.177738856620972e-12</v>
+        <v>1.186919629080266e-12</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>1.117700639597905e-12</v>
+        <v>1.126572590944373e-12</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>1.060578258296904e-12</v>
+        <v>1.069040093119909e-12</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>1.00638710483917e-12</v>
+        <v>1.014352563917508e-12</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>9.55142571345932e-13</v>
+        <v>9.625404316478334e-13</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>9.068600499383997e-13</v>
+        <v>9.136341246215269e-13</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>8.615549327378459e-13</v>
+        <v>8.676640711492956e-13</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>8.192426118654769e-13</v>
+        <v>8.246606995417789e-13</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>7.799384794425065e-13</v>
+        <v>7.846544381096235e-13</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>7.436579275901988e-13</v>
+        <v>7.476757151635277e-13</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>7.104163484297652e-13</v>
+        <v>7.137549590141358e-13</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>6.802291340824226e-13</v>
+        <v>6.829225979720978e-13</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>6.531116766694277e-13</v>
+        <v>6.552090603481043e-13</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>6.290793683119955e-13</v>
+        <v>6.306447744528035e-13</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>6.081276407977792e-13</v>
+        <v>6.092382974134104e-13</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>5.901185861953417e-13</v>
+        <v>5.908520817118464e-13</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>5.748596633894469e-13</v>
+        <v>5.752887164825264e-13</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>5.621581662108658e-13</v>
+        <v>5.623506100048646e-13</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>5.518213884903772e-13</v>
+        <v>5.518401705582841e-13</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>5.436566240587575e-13</v>
+        <v>5.435598064222046e-13</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>5.374711667467932e-13</v>
+        <v>5.37311925876057e-13</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>5.330723103852593e-13</v>
+        <v>5.328989371992599e-13</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>5.302673488049342e-13</v>
+        <v>5.30123248671236e-13</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>5.288635758365997e-13</v>
+        <v>5.287872685714101e-13</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>5.286682853110333e-13</v>
+        <v>5.286934051792045e-13</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>5.29488771059015e-13</v>
+        <v>5.296440667740425e-13</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>5.311323269113232e-13</v>
+        <v>5.314416616353465e-13</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>5.334062466987373e-13</v>
+        <v>5.338885980425398e-13</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>5.36117824252038e-13</v>
+        <v>5.36787284275047e-13</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>5.390743534020004e-13</v>
+        <v>5.39940128612287e-13</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>5.420831279794094e-13</v>
+        <v>5.431495393336887e-13</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>5.449514418150412e-13</v>
+        <v>5.462179247186718e-13</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>5.474865887396727e-13</v>
+        <v>5.489476930466576e-13</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>5.494958625840876e-13</v>
+        <v>5.511412525970734e-13</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>5.507865571790619e-13</v>
+        <v>5.526010116493388e-13</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>5.511659663553769e-13</v>
+        <v>5.531293784828794e-13</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>5.504413839438101e-13</v>
+        <v>5.525287613771164e-13</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>5.48420103775143e-13</v>
+        <v>5.506015686114751e-13</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>5.449094196801511e-13</v>
+        <v>5.471502084653751e-13</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>5.397166254896147e-13</v>
+        <v>5.419770892182403e-13</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>5.326672870619413e-13</v>
+        <v>5.349033407155016e-13</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>5.238000098529183e-13</v>
+        <v>5.259683737162245e-13</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>5.132911426624653e-13</v>
+        <v>5.153527311604105e-13</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>5.013193434585153e-13</v>
+        <v>5.032393219674853e-13</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>4.880632702089687e-13</v>
+        <v>4.898110550568401e-13</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>4.737015808817575e-13</v>
+        <v>4.752508393478997e-13</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>4.584129334448179e-13</v>
+        <v>4.59741583760092e-13</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>4.423759858660442e-13</v>
+        <v>4.434661972128028e-13</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>4.257693961133719e-13</v>
+        <v>4.266075886254598e-13</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>4.087718221547381e-13</v>
+        <v>4.093486669174923e-13</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>3.915619219580344e-13</v>
+        <v>3.91872341008283e-13</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>3.743183534912132e-13</v>
+        <v>3.74361519817277e-13</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>3.572197747221653e-13</v>
+        <v>3.569991122638562e-13</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>3.404448436188283e-13</v>
+        <v>3.399680272674506e-13</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>3.241722181491386e-13</v>
+        <v>3.234511737474886e-13</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>3.085805562809885e-13</v>
+        <v>3.07631460623354e-13</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>2.938485159823153e-13</v>
+        <v>2.926917968144762e-13</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>2.801513475187068e-13</v>
+        <v>2.788115980028884e-13</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>2.675658421884136e-13</v>
+        <v>2.660693495335803e-13</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>2.560576859055784e-13</v>
+        <v>2.544296425662904e-13</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>2.455866160152956e-13</v>
+        <v>2.438509703796277e-13</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>2.361123698626312e-13</v>
+        <v>2.342918262521725e-13</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>2.275946847926872e-13</v>
+        <v>2.257107034625414e-13</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>2.199932981505335e-13</v>
+        <v>2.180660952893187e-13</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>2.132679472812631e-13</v>
+        <v>2.11316495011112e-13</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>2.073783695299661e-13</v>
+        <v>2.054203959065257e-13</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>2.022843022417169e-13</v>
+        <v>2.003362912541487e-13</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>1.97945482761606e-13</v>
+        <v>1.960226743325862e-13</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>1.943216484347216e-13</v>
+        <v>1.924380384204407e-13</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>1.913725366061422e-13</v>
+        <v>1.895408767963052e-13</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>1.890578846209563e-13</v>
+        <v>1.872896827387828e-13</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>1.873374298242502e-13</v>
+        <v>1.856429495264741e-13</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>1.86170909561106e-13</v>
+        <v>1.845591704379757e-13</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>1.855180611766103e-13</v>
+        <v>1.83996838751889e-13</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>1.853386220158484e-13</v>
+        <v>1.839144477468132e-13</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>1.855923294239047e-13</v>
+        <v>1.842704907013477e-13</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>1.862389207458641e-13</v>
+        <v>1.850234608940915e-13</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>1.872381333268126e-13</v>
+        <v>1.861318516036454e-13</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>1.885497045118349e-13</v>
+        <v>1.875541561086086e-13</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>1.901333716460146e-13</v>
+        <v>1.892488676875787e-13</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>1.919488720744394e-13</v>
+        <v>1.911744796191584e-13</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>1.939559431421932e-13</v>
+        <v>1.932894851819458e-13</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>1.961143221943588e-13</v>
+        <v>1.955523776545383e-13</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>1.983837465760253e-13</v>
+        <v>1.979216503155395e-13</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>2.007239536322758e-13</v>
+        <v>2.003557964435469e-13</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>2.030946807081932e-13</v>
+        <v>2.028133093171578e-13</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>2.054556651488668e-13</v>
+        <v>2.052526822149762e-13</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>2.077666442993794e-13</v>
+        <v>2.076324084155993e-13</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>2.099873555048142e-13</v>
+        <v>2.099109811976246e-13</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>2.120775361102602e-13</v>
+        <v>2.120468938396558e-13</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>2.139969234607988e-13</v>
+        <v>2.139986396202887e-13</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>2.157052549015184e-13</v>
+        <v>2.157247118181261e-13</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>2.171689188987102e-13</v>
+        <v>2.171903850470332e-13</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>2.184559187467142e-13</v>
+        <v>2.184645381397106e-13</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>2.197135662166805e-13</v>
+        <v>2.196969110880491e-13</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>2.210912768486015e-13</v>
+        <v>2.210393888398649e-13</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>2.227384661824691e-13</v>
+        <v>2.226438563429736e-13</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>2.248045497582798e-13</v>
+        <v>2.246621985451954e-13</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>2.274389431160257e-13</v>
+        <v>2.272463003943464e-13</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>2.307910617956971e-13</v>
+        <v>2.305480468382407e-13</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>2.350103213372936e-13</v>
+        <v>2.347193228247013e-13</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>2.402461372808008e-13</v>
+        <v>2.399120133015379e-13</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>2.466479251662215e-13</v>
+        <v>2.462780032165771e-13</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>2.543651005335451e-13</v>
+        <v>2.539691775176319e-13</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>2.635470789227564e-13</v>
+        <v>2.631374211525109e-13</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>2.743432758738652e-13</v>
+        <v>2.739346190690477e-13</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>2.869031069268575e-13</v>
+        <v>2.865126562150522e-13</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>3.01375987621713e-13</v>
+        <v>3.010234175383276e-13</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>3.179113334984513e-13</v>
+        <v>3.176187879867175e-13</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>3.366585600970537e-13</v>
+        <v>3.36450652508027e-13</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>3.577670829574938e-13</v>
+        <v>3.576708960500531e-13</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>3.813863176198029e-13</v>
+        <v>3.814314035606515e-13</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>4.07665679623957e-13</v>
+        <v>4.078840599876214e-13</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>4.367545845099219e-13</v>
+        <v>4.371807502787525e-13</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>4.687252215253741e-13</v>
+        <v>4.693954468674052e-13</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>5.02819281237936e-13</v>
+        <v>5.037642438106185e-13</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>5.377729470106661e-13</v>
+        <v>5.390132360938471e-13</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>5.723152393874297e-13</v>
+        <v>5.738612922355337e-13</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>6.051751789119696e-13</v>
+        <v>6.070272807539965e-13</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>6.350817861281473e-13</v>
+        <v>6.372300701676747e-13</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>6.60764081579735e-13</v>
+        <v>6.631885289949162e-13</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>6.809510858105186e-13</v>
+        <v>6.836215257540834e-13</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>6.943718193643377e-13</v>
+        <v>6.97247928963593e-13</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>6.997553027849737e-13</v>
+        <v>7.027866071418021e-13</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>6.958305566162361e-13</v>
+        <v>6.989564288070973e-13</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>6.813266014019214e-13</v>
+        <v>6.844762624778514e-13</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>6.549724576858302e-13</v>
+        <v>6.580649766724415e-13</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>6.159419291972417e-13</v>
+        <v>6.188886843567615e-13</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>5.664661654002999e-13</v>
+        <v>5.691877624273141e-13</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>5.100615742166107e-13</v>
+        <v>5.124949583725914e-13</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>4.502490112815436e-13</v>
+        <v>4.523474920068162e-13</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>3.90549332230621e-13</v>
+        <v>3.92282583144365e-13</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>3.344833926993645e-13</v>
+        <v>3.358374515996135e-13</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>2.855720483231443e-13</v>
+        <v>2.865493171867849e-13</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>2.473361547374869e-13</v>
+        <v>2.479553997202602e-13</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>2.232965675778806e-13</v>
+        <v>2.235929190143813e-13</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>2.16166825271663e-13</v>
+        <v>2.161888130421278e-13</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>2.249736701373614e-13</v>
+        <v>2.247696850014791e-13</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>2.476920082840496e-13</v>
+        <v>2.473064393241763e-13</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>2.822966664487634e-13</v>
+        <v>2.81769900778452e-13</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>3.267624713684381e-13</v>
+        <v>3.26130894132438e-13</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>3.79064249780149e-13</v>
+        <v>3.783602441544062e-13</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>4.371768284208537e-13</v>
+        <v>4.364287756125111e-13</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>4.990750340274889e-13</v>
+        <v>4.98307313274886e-13</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>5.627336933371616e-13</v>
+        <v>5.619666819098343e-13</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>6.261276330868106e-13</v>
+        <v>6.253777062854921e-13</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>6.872316800133764e-13</v>
+        <v>6.865112111699959e-13</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>7.440206608539642e-13</v>
+        <v>7.433380213316479e-13</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>7.944694023455107e-13</v>
+        <v>7.938289615385815e-13</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>8.365527312249767e-13</v>
+        <v>8.359548565589542e-13</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>8.682454742294327e-13</v>
+        <v>8.67686531161033e-13</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>8.875224580958311e-13</v>
+        <v>8.869948101129669e-13</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>8.923585095611669e-13</v>
+        <v>8.918505181829479e-13</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>8.811527886948368e-13</v>
+        <v>8.806495168097432e-13</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>8.551492172027103e-13</v>
+        <v>8.546371442990564e-13</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>8.167610516586419e-13</v>
+        <v>8.162300120127602e-13</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>7.684051434085022e-13</v>
+        <v>7.678483320431262e-13</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>7.124983437983172e-13</v>
+        <v>7.119123164825809e-13</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>6.514575041739254e-13</v>
+        <v>6.508421774233646e-13</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>5.876994758813172e-13</v>
+        <v>5.870581269578681e-13</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>5.236411102664919e-13</v>
+        <v>5.229803771784917e-13</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>4.616992586752746e-13</v>
+        <v>4.610291401774619e-13</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>4.042907724536654e-13</v>
+        <v>4.036246280471796e-13</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>3.538309196830229e-13</v>
+        <v>3.53185466375321e-13</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>3.118580087771881e-13</v>
+        <v>3.112515264215944e-13</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>2.775786222901605e-13</v>
+        <v>2.770261818086261e-13</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>2.498160927842264e-13</v>
+        <v>2.493287718626125e-13</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>2.273937528216003e-13</v>
+        <v>2.269786359096793e-13</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>2.091349349645886e-13</v>
+        <v>2.087951132760436e-13</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>1.938629717754231e-13</v>
+        <v>1.935975432878478e-13</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>1.804049926712805e-13</v>
+        <v>1.802090763253842e-13</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>1.679653321587111e-13</v>
+        <v>1.678314785027909e-13</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>1.564403965020742e-13</v>
+        <v>1.563611758522146e-13</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>1.458007293554562e-13</v>
+        <v>1.457690090492087e-13</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>1.360168743729404e-13</v>
+        <v>1.360258187693233e-13</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>1.27059375208584e-13</v>
+        <v>1.271024456880825e-13</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>1.188987755164709e-13</v>
+        <v>1.189697304810373e-13</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>1.115056189506824e-13</v>
+        <v>1.115985138237358e-13</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>1.0485044916528e-13</v>
+        <v>1.049596363917063e-13</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>9.890380981434541e-14</v>
+        <v>9.902393886049764e-14</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>9.363624455195801e-14</v>
+        <v>9.376226190565593e-14</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>8.901829703218311e-14</v>
+        <v>8.914544620271348e-14</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>8.502051090910053e-14</v>
+        <v>8.514433242721701e-14</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>8.161342983678795e-14</v>
+        <v>8.172976125471115e-14</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>7.876759746931405e-14</v>
+        <v>7.887257336073143e-14</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>7.645355746075886e-14</v>
+        <v>7.654360942082485e-14</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>7.4641853465193e-14</v>
+        <v>7.471371011052891e-14</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>7.33030291366937e-14</v>
+        <v>7.335371610538773e-14</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>7.24076281293363e-14</v>
+        <v>7.243446808094363e-14</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>7.192619409719406e-14</v>
+        <v>7.192680671273672e-14</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>7.18292706943428e-14</v>
+        <v>7.180157267630979e-14</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>7.208740157485695e-14</v>
+        <v>7.202960664720417e-14</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>7.26711303928118e-14</v>
+        <v>7.258174930096206e-14</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>7.355100080228216e-14</v>
+        <v>7.342884131312513e-14</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>7.469755645734163e-14</v>
+        <v>7.454172335923398e-14</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>7.608134101206717e-14</v>
+        <v>7.589123611483241e-14</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>7.767289812053106e-14</v>
+        <v>7.74482202554597e-14</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>7.944277143681115e-14</v>
+        <v>7.918351645666052e-14</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>8.136150461498082e-14</v>
+        <v>8.106796539397519e-14</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>8.339964130911304e-14</v>
+        <v>8.307240774294366e-14</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>8.55277251732863e-14</v>
+        <v>8.516768417911124e-14</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>8.771629986157366e-14</v>
+        <v>8.732463537801795e-14</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>8.99359090280479e-14</v>
+        <v>8.951410201520353e-14</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>9.215709632678789e-14</v>
+        <v>9.170692476621366e-14</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>9.435040541186646e-14</v>
+        <v>9.387394430658814e-14</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>9.64863799373565e-14</v>
+        <v>9.598600131186682e-14</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>9.853556355733672e-14</v>
+        <v>9.801393645759524e-14</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>1.004684999258783e-13</v>
+        <v>9.992859041931158e-14</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>1.022557326970596e-13</v>
+        <v>1.01700803872561e-13</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>1.038678055249536e-13</v>
+        <v>1.033014174928835e-13</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>1.052752706380742e-13</v>
+        <v>1.047012804184702e-13</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>1.064576499552763e-13</v>
+        <v>1.058800945351117e-13</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>1.074204169782903e-13</v>
+        <v>1.068431749665442e-13</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>1.081737113572334e-13</v>
+        <v>1.07600442149771e-13</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>1.087276727422246e-13</v>
+        <v>1.081618165217976e-13</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>1.090924407833812e-13</v>
+        <v>1.085372185196269e-13</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>1.092781551308207e-13</v>
+        <v>1.087365685802628e-13</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>1.092949554346613e-13</v>
+        <v>1.087697871407097e-13</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>1.091529813450206e-13</v>
+        <v>1.086467946379714e-13</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>1.088623725120166e-13</v>
+        <v>1.083775115090518e-13</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>1.084332685857667e-13</v>
+        <v>1.079718581909547e-13</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>1.078758092163888e-13</v>
+        <v>1.074397551206841e-13</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>1.072001340540014e-13</v>
+        <v>1.067911227352445e-13</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>1.064163827487211e-13</v>
+        <v>1.060358814716388e-13</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>1.055346949506671e-13</v>
+        <v>1.051839517668722e-13</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>1.045652103099555e-13</v>
+        <v>1.042452540579472e-13</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>1.035180684767049e-13</v>
+        <v>1.032297087818683e-13</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>1.024034091010343e-13</v>
+        <v>1.021472363756407e-13</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>1.012313718330592e-13</v>
+        <v>1.010077572762662e-13</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>1.000120963228986e-13</v>
+        <v>9.982119192074982e-14</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>9.875572222067122e-14</v>
+        <v>9.859746074609648e-14</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>9.74723891764928e-14</v>
+        <v>9.734648418930805e-14</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>9.617223684048217e-14</v>
+        <v>9.607818268738948e-14</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>9.486540486275836e-14</v>
+        <v>9.480247667734596e-14</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>9.356203289343674e-14</v>
+        <v>9.352928659617904e-14</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>9.227226058263746e-14</v>
+        <v>9.226853288089498e-14</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>9.100622758047603e-14</v>
+        <v>9.103013596849548e-14</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>8.977407353707133e-14</v>
+        <v>8.982401629598556e-14</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>8.85859381025423e-14</v>
+        <v>8.866009430037028e-14</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>8.745196092700451e-14</v>
+        <v>8.754829041865138e-14</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>8.638228166057692e-14</v>
+        <v>8.649852508783401e-14</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>8.538703995337815e-14</v>
+        <v>8.552071874492286e-14</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>8.447637545552425e-14</v>
+        <v>8.462479182692015e-14</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>8.366042781713387e-14</v>
+        <v>8.382066477083075e-14</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>8.294933668832546e-14</v>
+        <v>8.311825801365916e-14</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>8.235324171921551e-14</v>
+        <v>8.252749199240809e-14</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>8.188228255992289e-14</v>
+        <v>8.205828714408252e-14</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>8.154659886056453e-14</v>
+        <v>8.172056390568556e-14</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>8.135633009383072e-14</v>
+        <v>8.152424254075565e-14</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>8.131652341190919e-14</v>
+        <v>8.147426470552883e-14</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>8.141381641974526e-14</v>
+        <v>8.155757360027406e-14</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>8.163068794857354e-14</v>
+        <v>8.175704651834131e-14</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>8.194961682962804e-14</v>
+        <v>8.205556075307993e-14</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>8.235308189414374e-14</v>
+        <v>8.243599359784019e-14</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>8.282356197335475e-14</v>
+        <v>8.288122234597159e-14</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>8.334353589849499e-14</v>
+        <v>8.337412429082341e-14</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>8.389548250079977e-14</v>
+        <v>8.389757672574626e-14</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>8.446188061150305e-14</v>
+        <v>8.443445694408943e-14</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>8.502520906183872e-14</v>
+        <v>8.496764223920219e-14</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>8.556794668304216e-14</v>
+        <v>8.548000990443521e-14</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>8.607257230634721e-14</v>
+        <v>8.59544372331377e-14</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>8.652156476298797e-14</v>
+        <v>8.637380151865914e-14</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>8.689740288419954e-14</v>
+        <v>8.672098005434991e-14</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>8.718256550121576e-14</v>
+        <v>8.697885013355919e-14</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>8.735953144527147e-14</v>
+        <v>8.713028904963718e-14</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>8.741077954760073e-14</v>
+        <v>8.715817409593328e-14</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>8.731987236344627e-14</v>
+        <v>8.704645694243563e-14</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>8.708939897828605e-14</v>
+        <v>8.679795168114846e-14</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>8.673818058385128e-14</v>
+        <v>8.643156450466263e-14</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>8.62855587869189e-14</v>
+        <v>8.59667175319148e-14</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>8.57508751942648e-14</v>
+        <v>8.542283288184043e-14</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>8.515347141266571e-14</v>
+        <v>8.481933267337603e-14</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>8.451268904889895e-14</v>
+        <v>8.417563902545844e-14</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>8.384786970973986e-14</v>
+        <v>8.351117405702282e-14</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>8.31783550019662e-14</v>
+        <v>8.284535988700646e-14</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>8.252348653235328e-14</v>
+        <v>8.219761863434442e-14</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>8.190260590767832e-14</v>
+        <v>8.158737241797352e-14</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>8.133505473471834e-14</v>
+        <v>8.103404335683048e-14</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>8.084017462024887e-14</v>
+        <v>8.055705356985049e-14</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>8.043730717104706e-14</v>
+        <v>8.017582517597036e-14</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>8.014570461662129e-14</v>
+        <v>7.990968693140048e-14</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>7.996927657747857e-14</v>
+        <v>7.976194083491836e-14</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>7.987932220606105e-14</v>
+        <v>7.97018242707755e-14</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>7.984296899942505e-14</v>
+        <v>7.969421694787919e-14</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>7.982734445462677e-14</v>
+        <v>7.970399857513665e-14</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>7.979957606872265e-14</v>
+        <v>7.969604886145516e-14</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>7.97267913387689e-14</v>
+        <v>7.963524751574197e-14</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>7.957611776182186e-14</v>
+        <v>7.948647424690429e-14</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>7.931468283493781e-14</v>
+        <v>7.92146087638494e-14</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>7.891126226193623e-14</v>
+        <v>7.878634658418563e-14</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>7.838652281551211e-14</v>
+        <v>7.822555096471563e-14</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>7.782223328426319e-14</v>
+        <v>7.762340048615143e-14</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>7.730366828493413e-14</v>
+        <v>7.707493605606626e-14</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>7.691610243427124e-14</v>
+        <v>7.667519858203498e-14</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>7.674481034902038e-14</v>
+        <v>7.651922897163199e-14</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>7.687506664592695e-14</v>
+        <v>7.670206813243132e-14</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>7.7381877866585e-14</v>
+        <v>7.73074074916262e-14</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>7.816672806306287e-14</v>
+        <v>7.822714107899753e-14</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>7.89865635623123e-14</v>
+        <v>7.919340288641388e-14</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>7.959392033817611e-14</v>
+        <v>7.993345206646336e-14</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>7.974133436449795e-14</v>
+        <v>8.017454777173506e-14</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>7.925597855632441e-14</v>
+        <v>7.972496162060229e-14</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>7.829898252040712e-14</v>
+        <v>7.875544866958656e-14</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>7.712484260247822e-14</v>
+        <v>7.753810614739849e-14</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>7.598805950045376e-14</v>
+        <v>7.634503600669811e-14</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>7.509998314869702e-14</v>
+        <v>7.540252931587007e-14</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>7.447959502319642e-14</v>
+        <v>7.473264972159756e-14</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>7.409229008382519e-14</v>
+        <v>7.430057089953292e-14</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>7.390346102128961e-14</v>
+        <v>7.407146411627391e-14</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>7.387850052629546e-14</v>
+        <v>7.401050063841775e-14</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>7.398280128954912e-14</v>
+        <v>7.408285173256236e-14</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>7.418175600175646e-14</v>
+        <v>7.425368866530512e-14</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>7.444075735362403e-14</v>
+        <v>7.448818270324401e-14</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>7.472519803585758e-14</v>
+        <v>7.475150511297629e-14</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>7.500047073916373e-14</v>
+        <v>7.500882716110004e-14</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>7.523196815424838e-14</v>
+        <v>7.522532011421273e-14</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>7.53850829718176e-14</v>
+        <v>7.536615523891185e-14</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>7.542520788257763e-14</v>
+        <v>7.539650380179514e-14</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>7.531901954884185e-14</v>
+        <v>7.528282906616445e-14</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>7.506420010182566e-14</v>
+        <v>7.502279355503058e-14</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>7.469027890696066e-14</v>
+        <v>7.464610607764077e-14</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>7.422823769221906e-14</v>
+        <v>7.418393688335905e-14</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>7.370905818557334e-14</v>
+        <v>7.366745622154974e-14</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>7.316372211499451e-14</v>
+        <v>7.31278343415757e-14</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>7.262321120845505e-14</v>
+        <v>7.259624149280127e-14</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>7.211850719392735e-14</v>
+        <v>7.210384792459068e-14</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>7.168059179938248e-14</v>
+        <v>7.168182388630687e-14</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>7.134044675279293e-14</v>
+        <v>7.136133962731416e-14</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>7.112905378213081e-14</v>
+        <v>7.11735653969765e-14</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>7.107739461536771e-14</v>
+        <v>7.114967144465736e-14</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>7.121645098047564e-14</v>
+        <v>7.132082801972056e-14</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>7.157095855427167e-14</v>
+        <v>7.171154100575217e-14</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>7.213026928574935e-14</v>
+        <v>7.230856281635412e-14</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>7.287128966442148e-14</v>
+        <v>7.308536690019587e-14</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>7.377091242512812e-14</v>
+        <v>7.401541203008723e-14</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>7.480603030270739e-14</v>
+        <v>7.507215697883595e-14</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>7.595353603199697e-14</v>
+        <v>7.622906051924935e-14</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>7.719032234783763e-14</v>
+        <v>7.745958142413792e-14</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>7.849328198506713e-14</v>
+        <v>7.873717846630903e-14</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>7.983930911678611e-14</v>
+        <v>8.003531191079945e-14</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>8.146493332843165e-14</v>
+        <v>8.159681945064016e-14</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>8.459061524693154e-14</v>
+        <v>8.468538878886553e-14</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>9.065736273895598e-14</v>
+        <v>9.079345770833156e-14</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>1.002987125901536e-13</v>
+        <v>1.005710084925154e-13</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>1.128621697661075e-13</v>
+        <v>1.133262731075697e-13</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>1.27580485887749e-13</v>
+        <v>1.282477583820573e-13</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>1.436864125759761e-13</v>
+        <v>1.445239711445077e-13</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>1.604127014516819e-13</v>
+        <v>1.613434182234452e-13</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>1.769897505600508e-13</v>
+        <v>1.778928968266249e-13</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>1.924978947539142e-13</v>
+        <v>1.932501993180876e-13</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>2.057796350487581e-13</v>
+        <v>2.063203572411822e-13</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>2.156563892014235e-13</v>
+        <v>2.159930874090036e-13</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>2.209495749687112e-13</v>
+        <v>2.211581066346069e-13</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>2.206762129991237e-13</v>
+        <v>2.208929500590142e-13</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>2.157523688930954e-13</v>
+        <v>2.160986199739722e-13</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>2.081620018705067e-13</v>
+        <v>2.087015124795982e-13</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>1.999009718332484e-13</v>
+        <v>2.006394507371203e-13</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>1.929651386831885e-13</v>
+        <v>1.93850257907744e-13</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>1.891670838798522e-13</v>
+        <v>1.900932823097941e-13</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>1.882576895297432e-13</v>
+        <v>1.891202086029836e-13</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>1.88689716730668e-13</v>
+        <v>1.894186232797436e-13</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>1.888956848434045e-13</v>
+        <v>1.894564016172111e-13</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>1.873081132287318e-13</v>
+        <v>1.877014188925237e-13</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>1.823824668761579e-13</v>
+        <v>1.826441031695623e-13</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>1.736265650227734e-13</v>
+        <v>1.738092198670027e-13</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>1.620160235453617e-13</v>
+        <v>1.621642015445177e-13</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>1.486353868066702e-13</v>
+        <v>1.487835443311947e-13</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>1.345691991694528e-13</v>
+        <v>1.347417443561272e-13</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>1.209020049964245e-13</v>
+        <v>1.211132977483699e-13</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>1.08718348650349e-13</v>
+        <v>1.089727006370262e-13</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>9.908570888736381e-14</v>
+        <v>9.937752365586621e-14</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>9.247575018736182e-14</v>
+        <v>9.279441489059529e-14</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>8.862314256119929e-14</v>
+        <v>8.895907879747395e-14</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>8.721685350744165e-14</v>
+        <v>8.756189254522939e-14</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>8.794585052466569e-14</v>
+        <v>8.829323330259996e-14</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>9.049910111144056e-14</v>
+        <v>9.084347823831651e-14</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>9.456557276634319e-14</v>
+        <v>9.490300452111761e-14</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>9.983423298794421e-14</v>
+        <v>1.001621893197356e-13</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>1.059940492748099e-13</v>
+        <v>1.063114098028983e-13</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>1.127339891255237e-13</v>
+        <v>1.130410431393509e-13</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>1.197430200386463e-13</v>
+        <v>1.200414664978157e-13</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>1.267101095127625e-13</v>
+        <v>1.270030570470393e-13</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>1.333242250464385e-13</v>
+        <v>1.336161919557493e-13</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>1.392783380896157e-13</v>
+        <v>1.3957519217778e-13</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>1.443740312895322e-13</v>
+        <v>1.446813577938613e-13</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>1.48531555847811e-13</v>
+        <v>1.488528742395863e-13</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>1.51677183335489e-13</v>
+        <v>1.520138568535368e-13</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>1.537371853236158e-13</v>
+        <v>1.540884209743077e-13</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>1.546378333832322e-13</v>
+        <v>1.550006819404846e-13</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>1.543053990853833e-13</v>
+        <v>1.546747550906577e-13</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>1.526661540011126e-13</v>
+        <v>1.530347557634155e-13</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>1.496465126709511e-13</v>
+        <v>1.500049435265404e-13</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>1.452865589032544e-13</v>
+        <v>1.456242487573613e-13</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>1.399442831224553e-13</v>
+        <v>1.402523095295221e-13</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>1.340328269539271e-13</v>
+        <v>1.343044010557133e-13</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>1.279653320230452e-13</v>
+        <v>1.281957985486274e-13</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>1.221549399551682e-13</v>
+        <v>1.223417772209402e-13</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>1.170147923756755e-13</v>
+        <v>1.171576122853485e-13</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>1.129580309099277e-13</v>
+        <v>1.130585789545297e-13</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>1.103977971832994e-13</v>
+        <v>1.104599524411759e-13</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>1.097472328211602e-13</v>
+        <v>1.09777007957974e-13</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>1.114194794488785e-13</v>
+        <v>1.114250207176093e-13</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>1.158276786918256e-13</v>
+        <v>1.158192659327706e-13</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>1.233849721753632e-13</v>
+        <v>1.233750188161366e-13</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>1.345045015248743e-13</v>
+        <v>1.345075545804076e-13</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>1.495165980482309e-13</v>
+        <v>1.495489743550057e-13</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>1.677153806130774e-13</v>
+        <v>1.677906149976081e-13</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>1.876897806054296e-13</v>
+        <v>1.878155281656102e-13</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>2.080152136150457e-13</v>
+        <v>2.081931903485144e-13</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>2.272670952317548e-13</v>
+        <v>2.274930780358943e-13</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>2.4402084104533e-13</v>
+        <v>2.442846677172671e-13</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>2.569219342259411e-13</v>
+        <v>2.572083883639362e-13</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>2.652563854436762e-13</v>
+        <v>2.655532858327056e-13</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>2.686534817312945e-13</v>
+        <v>2.689560176680125e-13</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>2.809381209484305e-13</v>
+        <v>2.812673796767999e-13</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>3.343465981856677e-13</v>
+        <v>3.347671428275448e-13</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>4.043249810811438e-13</v>
+        <v>4.048605529204785e-13</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>4.59996553950281e-13</v>
+        <v>4.606209721332081e-13</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>4.735680633608048e-13</v>
+        <v>4.742104031550683e-13</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>4.497505080822894e-13</v>
+        <v>4.503496873895799e-13</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>4.127407603162537e-13</v>
+        <v>4.132782635713432e-13</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>3.867944299364918e-13</v>
+        <v>3.872943667425632e-13</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>3.807502023548167e-13</v>
+        <v>3.812504140076486e-13</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>3.781904851417832e-13</v>
+        <v>3.786952900642047e-13</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>3.707706814639389e-13</v>
+        <v>3.712673711090946e-13</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>3.590412163000715e-13</v>
+        <v>3.595178778287895e-13</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>3.438310951202179e-13</v>
+        <v>3.442771695840383e-13</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>3.259693233944448e-13</v>
+        <v>3.263756057356201e-13</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>3.062849065928292e-13</v>
+        <v>3.06643545644324e-13</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>2.856068501853932e-13</v>
+        <v>2.859113486708845e-13</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>2.647366096825056e-13</v>
+        <v>2.649819100927109e-13</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>2.440804990286788e-13</v>
+        <v>2.442642153221398e-13</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>2.237491605385391e-13</v>
+        <v>2.238724997834058e-13</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>2.038461064872777e-13</v>
+        <v>2.039138910864456e-13</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>1.844748491500843e-13</v>
+        <v>1.844955168411937e-13</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>1.657389008020964e-13</v>
+        <v>1.657245046575329e-13</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>1.4774177371852e-13</v>
+        <v>1.477079821454142e-13</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>1.30586980174495e-13</v>
+        <v>1.305530769147226e-13</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>1.143783223443038e-13</v>
+        <v>1.143671891487956e-13</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>9.930180240607061e-14</v>
+        <v>9.933500638820456e-14</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>8.573823715928477e-14</v>
+        <v>8.582438778583287e-14</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>7.409666819681724e-14</v>
+        <v>7.422973044574632e-14</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>6.478613711153225e-14</v>
+        <v>6.494543147200395e-14</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>5.818619330899068e-14</v>
+        <v>5.833729761177018e-14</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>5.418067831234383e-14</v>
+        <v>5.429058579311999e-14</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>5.224193717988685e-14</v>
+        <v>5.229163947359454e-14</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>5.182984829947999e-14</v>
+        <v>5.181471665388647e-14</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>5.240429005898843e-14</v>
+        <v>5.233407533469363e-14</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>5.342514084627702e-14</v>
+        <v>5.33239735167133e-14</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>5.435227904920894e-14</v>
+        <v>5.425866920064126e-14</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>5.469461988086541e-14</v>
+        <v>5.465894224393785e-14</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>5.446065524447923e-14</v>
+        <v>5.451952723336882e-14</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>5.39505973061923e-14</v>
+        <v>5.411191746155118e-14</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>5.346831390708614e-14</v>
+        <v>5.371107440618867e-14</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>5.33176728882409e-14</v>
+        <v>5.359195954498382e-14</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>5.380096019396316e-14</v>
+        <v>5.402813471766636e-14</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>5.497750671130755e-14</v>
+        <v>5.507819886026019e-14</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>5.640415674901047e-14</v>
+        <v>5.635615850075199e-14</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>5.759812201895725e-14</v>
+        <v>5.744059251691628e-14</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>5.839046815809531e-14</v>
+        <v>5.818275888861825e-14</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>5.884188237691271e-14</v>
+        <v>5.863341287612584e-14</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>5.901830596269771e-14</v>
+        <v>5.884787452870523e-14</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>5.898568020273861e-14</v>
+        <v>5.888146389562272e-14</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>5.880994638432356e-14</v>
+        <v>5.878950102614453e-14</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>5.855704579474096e-14</v>
+        <v>5.862730596953691e-14</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>5.829256379697605e-14</v>
+        <v>5.844990207950866e-14</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>5.805801859182733e-14</v>
+        <v>5.829225052226819e-14</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>5.785597539802975e-14</v>
+        <v>5.815684158009531e-14</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>5.768544822719943e-14</v>
+        <v>5.804320527836403e-14</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>5.754545109095312e-14</v>
+        <v>5.795087164244873e-14</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>5.743499800090736e-14</v>
+        <v>5.787937069772369e-14</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>5.735310296867848e-14</v>
+        <v>5.782823246956302e-14</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>5.729878000588311e-14</v>
+        <v>5.779698698334105e-14</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>5.727104312413776e-14</v>
+        <v>5.778516426443201e-14</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>5.726890633505889e-14</v>
+        <v>5.779229433821011e-14</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>5.729138365026299e-14</v>
+        <v>5.781790723004959e-14</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>5.733748908136665e-14</v>
+        <v>5.786153296532473e-14</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>5.740623663998634e-14</v>
+        <v>5.792270156940977e-14</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>5.749664033773847e-14</v>
+        <v>5.800094306767882e-14</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>5.760771418623974e-14</v>
+        <v>5.809578748550632e-14</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>5.773847219710655e-14</v>
+        <v>5.820676484826641e-14</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>5.788792838195528e-14</v>
+        <v>5.833340518133322e-14</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>5.805509675240271e-14</v>
+        <v>5.847523851008123e-14</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>5.823899132006522e-14</v>
+        <v>5.863179485988456e-14</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>5.843862609655911e-14</v>
+        <v>5.880260425611727e-14</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>5.865301509350126e-14</v>
+        <v>5.898719672415395e-14</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>5.888117232250781e-14</v>
+        <v>5.918510228936846e-14</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>5.912211179519567e-14</v>
+        <v>5.939585097713543e-14</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>5.937484752318113e-14</v>
+        <v>5.961897281282893e-14</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>5.963839351808069e-14</v>
+        <v>5.985399782182316e-14</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>5.991176379151066e-14</v>
+        <v>6.010045602949217e-14</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>6.019397235508799e-14</v>
+        <v>6.035787746121063e-14</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>6.048448091155413e-14</v>
+        <v>6.062616658680726e-14</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>6.078524439378669e-14</v>
+        <v>6.090731318927945e-14</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>6.109908056790855e-14</v>
+        <v>6.120402871686623e-14</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>6.142880803381345e-14</v>
+        <v>6.151902531516432e-14</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>6.177724539139608e-14</v>
+        <v>6.185501512977138e-14</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>6.21472112405502e-14</v>
+        <v>6.221471030628412e-14</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>6.254152418116953e-14</v>
+        <v>6.260082299029929e-14</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>6.296300281314887e-14</v>
+        <v>6.30160653274146e-14</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>6.341446573638193e-14</v>
+        <v>6.346314946322679e-14</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>6.389873155076233e-14</v>
+        <v>6.394478754333245e-14</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>6.441861885618505e-14</v>
+        <v>6.446369171332949e-14</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>6.497694625254315e-14</v>
+        <v>6.5022574118814e-14</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>6.55765323397318e-14</v>
+        <v>6.562414690538412e-14</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>6.622019571764452e-14</v>
+        <v>6.627112221863631e-14</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>6.691075498617478e-14</v>
+        <v>6.696621220416704e-14</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>6.765102874521787e-14</v>
+        <v>6.77121290075746e-14</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>6.844383559466729e-14</v>
+        <v>6.85115847744554e-14</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>6.929199413441629e-14</v>
+        <v>6.936729165040576e-14</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>7.01983229643605e-14</v>
+        <v>7.02819617810242e-14</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>7.116564068439325e-14</v>
+        <v>7.125830731190708e-14</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>7.219676589440766e-14</v>
+        <v>7.229904038865046e-14</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>7.329451719429966e-14</v>
+        <v>7.340687315685328e-14</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>7.446171318396132e-14</v>
+        <v>7.458451776211055e-14</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>7.570117246328883e-14</v>
+        <v>7.583468635002148e-14</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>7.701571363217525e-14</v>
+        <v>7.716009106618208e-14</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>7.840815529051337e-14</v>
+        <v>7.856344405618809e-14</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>7.988131603819974e-14</v>
+        <v>8.00474574656391e-14</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>8.143801447512726e-14</v>
+        <v>8.161484344013095e-14</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>8.308106920118845e-14</v>
+        <v>8.326831412525912e-14</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>8.481329881628034e-14</v>
+        <v>8.501058166662366e-14</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>8.663752192029559e-14</v>
+        <v>8.684435820982019e-14</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>8.85565571131265e-14</v>
+        <v>8.877235590044393e-14</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>9.05732229946706e-14</v>
+        <v>9.079728688409547e-14</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>9.26903381648183e-14</v>
+        <v>9.292186330636813e-14</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>9.491072122346749e-14</v>
+        <v>9.514879731286285e-14</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>9.724248004036344e-14</v>
+        <v>9.748610507031682e-14</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>9.971871457943999e-14</v>
+        <v>9.996686454031681e-14</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>1.023798992525351e-13</v>
+        <v>1.026315486990131e-13</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>1.052665095403631e-13</v>
+        <v>1.055206315944136e-13</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>1.084190209236283e-13</v>
+        <v>1.086745872745159e-13</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>1.11877908883046e-13</v>
+        <v>1.121338897873287e-13</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>1.156836488993229e-13</v>
+        <v>1.159390131808523e-13</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>1.198767164531648e-13</v>
+        <v>1.201304315030857e-13</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>1.244975870252887e-13</v>
+        <v>1.247486188020394e-13</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>1.295867360964006e-13</v>
+        <v>1.298340491257128e-13</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>1.351846391472049e-13</v>
+        <v>1.354271965221036e-13</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>1.41327292422618e-13</v>
+        <v>1.415640548982574e-13</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>1.479706821580484e-13</v>
+        <v>1.482005919832818e-13</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>1.550018012792957e-13</v>
+        <v>1.552237682545012e-13</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>1.62305381985598e-13</v>
+        <v>1.62518283005831e-13</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>1.697661564761683e-13</v>
+        <v>1.699688355311611e-13</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>1.772688569502456e-13</v>
+        <v>1.774601251244078e-13</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>1.846982156070491e-13</v>
+        <v>1.848768510794671e-13</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>1.919389646457979e-13</v>
+        <v>1.921037126902355e-13</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>1.988758362657308e-13</v>
+        <v>1.990254092506288e-13</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>2.05393562666067e-13</v>
+        <v>2.055266400545431e-13</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>2.113768760460268e-13</v>
+        <v>2.114921043958762e-13</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>2.16710508604847e-13</v>
+        <v>2.168065015685416e-13</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>2.212791925417474e-13</v>
+        <v>2.213545308664364e-13</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>2.24967660055951e-13</v>
+        <v>2.250208915834607e-13</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>2.2766064334669e-13</v>
+        <v>2.276902830135236e-13</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>2.293053707361294e-13</v>
+        <v>2.293100951556341e-13</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>2.301374043940834e-13</v>
+        <v>2.301169495861346e-13</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>2.304754039295095e-13</v>
+        <v>2.304308240450368e-13</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>2.30638036707847e-13</v>
+        <v>2.305717040529834e-13</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>2.309439700945351e-13</v>
+        <v>2.308595751306178e-13</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>2.317118714550134e-13</v>
+        <v>2.316144227985829e-13</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>2.332604081547191e-13</v>
+        <v>2.3315623257752e-13</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>2.359082475590943e-13</v>
+        <v>2.358049899880747e-13</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>2.399737808846504e-13</v>
+        <v>2.398804029269704e-13</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>2.456898553457872e-13</v>
+        <v>2.456161783733394e-13</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>2.530830999569285e-13</v>
+        <v>2.530387036347521e-13</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>2.621496942609384e-13</v>
+        <v>2.621437539077065e-13</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>2.728858178006752e-13</v>
+        <v>2.729271043886939e-13</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>2.852876501190268e-13</v>
+        <v>2.853845302742357e-13</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>2.993513707588528e-13</v>
+        <v>2.995118067608252e-13</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>3.150731592630072e-13</v>
+        <v>3.153047090449494e-13</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>3.324491951743869e-13</v>
+        <v>3.327590123231388e-13</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>3.514559926125225e-13</v>
+        <v>3.518505938144482e-13</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>3.718300976128713e-13</v>
+        <v>3.723125249034007e-13</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>3.931476686807233e-13</v>
+        <v>3.937155927763479e-13</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>4.149819294578766e-13</v>
+        <v>4.156276150498246e-13</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>4.369061035861878e-13</v>
+        <v>4.376164093404248e-13</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>4.58493414707455e-13</v>
+        <v>4.592497932646837e-13</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>4.793170864634775e-13</v>
+        <v>4.800955844391373e-13</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>4.989503424961106e-13</v>
+        <v>4.99721600480378e-13</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>5.169664064471527e-13</v>
+        <v>5.176956590049413e-13</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>5.329445260843907e-13</v>
+        <v>5.335925164687424e-13</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>5.465497097868093e-13</v>
+        <v>5.470857119739032e-13</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>5.575108147044983e-13</v>
+        <v>5.579223282981313e-13</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>5.655582198093732e-13</v>
+        <v>5.658512011169313e-13</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>5.704223040733189e-13</v>
+        <v>5.706211661057765e-13</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>5.718334464682303e-13</v>
+        <v>5.719810589401516e-13</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>5.695220920797578e-13</v>
+        <v>5.69679774592024e-13</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>5.633259558271899e-13</v>
+        <v>5.635624168159353e-13</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>5.53408159388084e-13</v>
+        <v>5.537659420429252e-13</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>5.399932969938768e-13</v>
+        <v>5.404824405601196e-13</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>5.23305962893777e-13</v>
+        <v>5.23904002674973e-13</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>5.03618885193451e-13</v>
+        <v>5.042777887550846e-13</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>4.813932008417457e-13</v>
+        <v>4.820665181755796e-13</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>4.571361393699272e-13</v>
+        <v>4.577856449452135e-13</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>4.313549303091782e-13</v>
+        <v>4.319506230726594e-13</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>4.045568031907459e-13</v>
+        <v>4.050769065666547e-13</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>3.772489875458574e-13</v>
+        <v>3.776799494359168e-13</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>3.499387129057633e-13</v>
+        <v>3.502752056891866e-13</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>3.231332088016408e-13</v>
+        <v>3.233781293351314e-13</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>2.97339704764764e-13</v>
+        <v>2.975041743825154e-13</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>2.730040856780674e-13</v>
+        <v>2.731062416873834e-13</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>2.502190074067333e-13</v>
+        <v>2.502770443911016e-13</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>2.289509543313081e-13</v>
+        <v>2.289806385416935e-13</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>2.091662533653913e-13</v>
+        <v>2.091809196180997e-13</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>1.908312314226405e-13</v>
+        <v>1.90841783099319e-13</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>1.73912215416708e-13</v>
+        <v>1.739271244643449e-13</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>1.583755322612011e-13</v>
+        <v>1.584008391921258e-13</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>1.441875088697733e-13</v>
+        <v>1.442268227616566e-13</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>1.313144071666866e-13</v>
+        <v>1.313689140723748e-13</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>1.197161877702617e-13</v>
+        <v>1.197854661269112e-13</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>1.093413347022046e-13</v>
+        <v>1.094248404395888e-13</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>1.00137113800776e-13</v>
+        <v>1.002343379781133e-13</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>9.205079090426511e-14</v>
+        <v>9.216125971021929e-14</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>8.5029631850957e-14</v>
+        <v>8.515290660363685e-14</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>7.902090247911837e-14</v>
+        <v>7.915657962607792e-14</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>7.397186862703535e-14</v>
+        <v>7.411957974527371e-14</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>6.982979613299058e-14</v>
+        <v>6.998920792895204e-14</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>6.653976540790563e-14</v>
+        <v>6.671055068540425e-14</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>6.39950389404603e-14</v>
+        <v>6.417618823104588e-14</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>6.203618349315263e-14</v>
+        <v>6.222530502538452e-14</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>6.050140482481019e-14</v>
+        <v>6.069469315975721e-14</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>5.922890869426704e-14</v>
+        <v>5.942114472550739e-14</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>5.805690086035193e-14</v>
+        <v>5.82414518139733e-14</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>5.682358708189712e-14</v>
+        <v>5.699240651649659e-14</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>5.5367173117735e-14</v>
+        <v>5.551080092441911e-14</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>5.352586472669406e-14</v>
+        <v>5.363342712907878e-14</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>5.123664834482004e-14</v>
+        <v>5.129864668251355e-14</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>4.886316491769062e-14</v>
+        <v>4.888352098838465e-14</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>4.688422103873524e-14</v>
+        <v>4.688352846340706e-14</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>4.576984773166229e-14</v>
+        <v>4.578491978184068e-14</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>4.542352290118267e-14</v>
+        <v>4.547820279472746e-14</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>4.498927835580916e-14</v>
+        <v>4.505615363705045e-14</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>4.444224678147017e-14</v>
+        <v>4.449085783075151e-14</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>4.411668474570306e-14</v>
+        <v>4.413415051860507e-14</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>4.434771717941149e-14</v>
+        <v>4.433878507989374e-14</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>4.545385365591707e-14</v>
+        <v>4.544028933869382e-14</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>4.736972739462299e-14</v>
+        <v>4.737621693801728e-14</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>4.964513551948655e-14</v>
+        <v>4.968515235185618e-14</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>5.18130678481944e-14</v>
+        <v>5.188825550100831e-14</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>5.340651419844055e-14</v>
+        <v>5.350668630627897e-14</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>5.395871490043909e-14</v>
+        <v>5.406186117904793e-14</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>5.326327597092516e-14</v>
+        <v>5.334177540070562e-14</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>5.186653406813092e-14</v>
+        <v>5.190511752837244e-14</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>5.045006024285422e-14</v>
+        <v>5.044903765009645e-14</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>4.966501471833953e-14</v>
+        <v>4.96396492030895e-14</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>4.95919888718228e-14</v>
+        <v>4.956075506361279e-14</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>4.98045677337383e-14</v>
+        <v>4.977871809647768e-14</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>4.9858693625025e-14</v>
+        <v>4.984189538834134e-14</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>4.939841382036989e-14</v>
+        <v>4.938832827786148e-14</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>4.84407399908082e-14</v>
+        <v>4.843570795862862e-14</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>4.710135696723535e-14</v>
+        <v>4.710216751947458e-14</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>4.549595020865081e-14</v>
+        <v>4.550584068859404e-14</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>4.3740205174055e-14</v>
+        <v>4.376486119418259e-14</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>4.194980239090251e-14</v>
+        <v>4.199735728773579e-14</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>4.022274014258441e-14</v>
+        <v>4.030182030341882e-14</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>3.859960474529681e-14</v>
+        <v>3.87129830360681e-14</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>3.710935070687854e-14</v>
+        <v>3.725266064075233e-14</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>3.578093253517286e-14</v>
+        <v>3.594266827254457e-14</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>3.464330473802251e-14</v>
+        <v>3.480482108651736e-14</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>3.372542182326715e-14</v>
+        <v>3.386093423774019e-14</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>3.305623694826698e-14</v>
+        <v>3.313282197148976e-14</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>3.260173379679761e-14</v>
+        <v>3.259987077110082e-14</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>3.218195892768638e-14</v>
+        <v>3.214072924243252e-14</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>3.177932461532309e-14</v>
+        <v>3.173736327267437e-14</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>3.140944120730074e-14</v>
+        <v>3.139316979009007e-14</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>3.108791905121137e-14</v>
+        <v>3.111154572294246e-14</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>3.083036849464827e-14</v>
+        <v>3.089588799949549e-14</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>3.064867943369841e-14</v>
+        <v>3.074773243480115e-14</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>3.053710233959209e-14</v>
+        <v>3.065979092386052e-14</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>3.048466526672242e-14</v>
+        <v>3.062216290752603e-14</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>3.048039546779044e-14</v>
+        <v>3.062494742561284e-14</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>3.051332019549737e-14</v>
+        <v>3.065824351793621e-14</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>3.057246670254429e-14</v>
+        <v>3.071215022431129e-14</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>3.064686224163243e-14</v>
+        <v>3.077676658455341e-14</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>3.07255340654629e-14</v>
+        <v>3.084219163847774e-14</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>3.079750942673679e-14</v>
+        <v>3.089852442589944e-14</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>3.085181557815538e-14</v>
+        <v>3.093586398663385e-14</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>3.087747977241972e-14</v>
+        <v>3.094430936049612e-14</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>3.086355211198603e-14</v>
+        <v>3.091398075478853e-14</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>3.080347354292098e-14</v>
+        <v>3.083906595324993e-14</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>3.070026778819008e-14</v>
+        <v>3.072263000352779e-14</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>3.055822268617393e-14</v>
+        <v>3.056890900068804e-14</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>3.038162607525338e-14</v>
+        <v>3.038213903979696e-14</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>3.01747657938094e-14</v>
+        <v>3.016655621592091e-14</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>2.994192968022238e-14</v>
+        <v>2.992639662412567e-14</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>2.968740557287326e-14</v>
+        <v>2.966589635947761e-14</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>2.941548131014308e-14</v>
+        <v>2.938929151704313e-14</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>2.913044473041212e-14</v>
+        <v>2.910081819188792e-14</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>2.883658367206165e-14</v>
+        <v>2.880471247907867e-14</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>2.853818597347192e-14</v>
+        <v>2.8505210473681e-14</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>2.823953947302395e-14</v>
+        <v>2.820654827076134e-14</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>2.794493200909879e-14</v>
+        <v>2.791296196538614e-14</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>2.765865142007667e-14</v>
+        <v>2.762868765262102e-14</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>2.738498554433864e-14</v>
+        <v>2.735796142753243e-14</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>2.712822222026568e-14</v>
+        <v>2.710501938518676e-14</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>2.689264928623812e-14</v>
+        <v>2.687409762064973e-14</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>2.668255458063695e-14</v>
+        <v>2.666943222898772e-14</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>2.650190774839425e-14</v>
+        <v>2.64949044460425e-14</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>2.635321079298886e-14</v>
+        <v>2.635275874828845e-14</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>2.623854285518992e-14</v>
+        <v>2.624476802256223e-14</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>2.615998303650208e-14</v>
+        <v>2.617270511191152e-14</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>2.611961043843029e-14</v>
+        <v>2.613834285938433e-14</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>2.611950416247938e-14</v>
+        <v>2.614345410802854e-14</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>2.616174331015413e-14</v>
+        <v>2.618981170089197e-14</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>2.624840698295945e-14</v>
+        <v>2.627918848102259e-14</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>2.638157428240001e-14</v>
+        <v>2.641335729146812e-14</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>2.656332430998089e-14</v>
+        <v>2.659409097527667e-14</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>2.679573616720683e-14</v>
+        <v>2.682316237549603e-14</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>2.708088895558236e-14</v>
+        <v>2.710234433517382e-14</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>2.742086177661285e-14</v>
+        <v>2.743340969735842e-14</v>
       </c>
     </row>
   </sheetData>
